--- a/prob set 3 (2) (1).xlsx
+++ b/prob set 3 (2) (1).xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donnel26\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B4326-A4D7-4E38-8248-BECC140A8C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78848FB-C95D-46FB-AACB-AFA836EE4D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="4" activeTab="6" xr2:uid="{3D9CDADF-415B-42B7-BF7A-9C8D4EBFAFAF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{3D9CDADF-415B-42B7-BF7A-9C8D4EBFAFAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Book Example" sheetId="3" r:id="rId1"/>
     <sheet name="Problem 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Problem 1 Financial Analysis" sheetId="4" r:id="rId4"/>
-    <sheet name="Problem 1 Economic Analysis" sheetId="5" r:id="rId5"/>
-    <sheet name="Problem 2" sheetId="6" r:id="rId6"/>
+    <sheet name="Problem 1 Economic Analysis" sheetId="5" r:id="rId4"/>
+    <sheet name="Problem 2" sheetId="6" r:id="rId5"/>
+    <sheet name="Problem 1 Financial Analysis" sheetId="4" r:id="rId6"/>
     <sheet name="Problem 2 Finanacial Analysis" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="281">
   <si>
     <t>Parameter</t>
   </si>
@@ -876,6 +876,27 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Govt share</t>
+  </si>
+  <si>
+    <t>(i) Annual land cost</t>
+  </si>
+  <si>
+    <t>Land fee  (LC/ht)</t>
+  </si>
+  <si>
+    <t>(ii) Production cost</t>
+  </si>
+  <si>
+    <t>(iii) Transport costs</t>
+  </si>
+  <si>
+    <t>(iii) Freight &amp; Insurance costs</t>
+  </si>
+  <si>
+    <t>FARM GATE</t>
+  </si>
 </sst>
 </file>
 
@@ -886,7 +907,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000000000000%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,6 +1037,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1346,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1675,9 +1710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1726,6 +1758,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2073,18 +2127,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" customWidth="1"/>
-    <col min="8" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="8" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -2108,7 +2162,7 @@
       <c r="R1" s="21"/>
       <c r="S1" s="22"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -2135,7 +2189,7 @@
       </c>
       <c r="V2" s="22"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -2184,7 +2238,7 @@
       </c>
       <c r="V3" s="24"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2232,7 +2286,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2293,7 +2347,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2354,7 +2408,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="15" thickBot="1">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2414,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2457,7 +2511,7 @@
       </c>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2492,7 +2546,7 @@
       </c>
       <c r="S9" s="24"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2543,7 +2597,7 @@
       </c>
       <c r="S10" s="24"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2593,7 +2647,7 @@
       </c>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2637,7 +2691,7 @@
       </c>
       <c r="S12" s="24"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2684,7 +2738,7 @@
       </c>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -2724,7 +2778,7 @@
       </c>
       <c r="S14" s="24"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2767,7 +2821,7 @@
       </c>
       <c r="S15" s="24"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15">
       <c r="F16" s="26"/>
       <c r="H16" s="24"/>
       <c r="I16" s="1" t="s">
@@ -2786,7 +2840,7 @@
       </c>
       <c r="S16" s="24"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2804,7 +2858,7 @@
       <c r="N17" s="26"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="15">
       <c r="B18" t="s">
         <v>74</v>
       </c>
@@ -2837,7 +2891,7 @@
       </c>
       <c r="S18" s="24"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22">
       <c r="B19" t="s">
         <v>75</v>
       </c>
@@ -2864,7 +2918,7 @@
       <c r="N19" s="26"/>
       <c r="S19" s="24"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15">
       <c r="B20" t="s">
         <v>76</v>
       </c>
@@ -2894,7 +2948,7 @@
       </c>
       <c r="S20" s="24"/>
     </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -2928,7 +2982,7 @@
       </c>
       <c r="S21" s="24"/>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2959,7 +3013,7 @@
       </c>
       <c r="S22" s="24"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2980,7 +3034,7 @@
       <c r="N23" s="26"/>
       <c r="S23" s="24"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -3013,7 +3067,7 @@
       <c r="P24" s="6"/>
       <c r="S24" s="24"/>
     </row>
-    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -3042,13 +3096,13 @@
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22">
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="15">
       <c r="A27" s="7" t="s">
         <v>89</v>
       </c>
@@ -3072,7 +3126,7 @@
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22">
       <c r="B28">
         <v>2015</v>
       </c>
@@ -3137,7 +3191,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -3205,12 +3259,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -3223,7 +3277,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -3236,7 +3290,7 @@
         <v>86.35</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="15">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -3325,7 +3379,7 @@
         <v>160.35</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="15">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -3410,7 +3464,7 @@
         <v>-201.21350000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="15">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -3495,7 +3549,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="15">
       <c r="A39" s="1" t="s">
         <v>96</v>
       </c>
@@ -3584,12 +3638,12 @@
         <v>284.13649999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="15">
       <c r="A41" s="9"/>
       <c r="B41" s="8">
         <v>0.05</v>
@@ -3601,7 +3655,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22">
       <c r="A42" s="10" t="s">
         <v>98</v>
       </c>
@@ -3618,7 +3672,7 @@
         <v>-178.3472147201453</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22">
       <c r="A43" s="11" t="s">
         <v>99</v>
       </c>
@@ -3641,10 +3695,10 @@
         <v>24500.000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="15">
       <c r="A45" s="7" t="s">
         <v>102</v>
       </c>
@@ -3672,7 +3726,7 @@
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22">
       <c r="B46">
         <v>2015</v>
       </c>
@@ -3737,7 +3791,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="15">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -3805,17 +3859,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="15">
       <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="15">
       <c r="A49" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3873,7 +3927,7 @@
       <c r="U50" s="16"/>
       <c r="V50" s="16"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3886,12 +3940,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="15">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3936,7 +3990,7 @@
         <v>2.8462932490348658</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -3957,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="15">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -4006,7 +4060,7 @@
         <v>84.168957507173914</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="15">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -4095,12 +4149,12 @@
         <v>284.13649999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="15">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -4185,7 +4239,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4270,7 +4324,7 @@
         <v>-201.21350000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -4355,7 +4409,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -4440,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -4525,7 +4579,7 @@
         <v>111.28649999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -4610,12 +4664,12 @@
         <v>27.821624999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="15">
       <c r="A67" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="15">
       <c r="A68" s="1" t="s">
         <v>112</v>
       </c>
@@ -4704,7 +4758,7 @@
         <v>256.31487499999997</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="15">
       <c r="A70" s="9"/>
       <c r="B70" s="8">
         <v>0.05</v>
@@ -4716,7 +4770,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22">
       <c r="A71" s="10" t="s">
         <v>98</v>
       </c>
@@ -4733,7 +4787,7 @@
         <v>60.357831214737487</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22">
       <c r="A72" s="11" t="s">
         <v>99</v>
       </c>
@@ -4744,7 +4798,7 @@
       <c r="C72" s="12"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="15">
       <c r="A74" s="7" t="s">
         <v>134</v>
       </c>
@@ -4772,7 +4826,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22">
       <c r="B75">
         <v>2015</v>
       </c>
@@ -4837,7 +4891,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="15">
       <c r="A76" s="3" t="s">
         <v>90</v>
       </c>
@@ -4905,12 +4959,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="15">
       <c r="A77" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -4923,7 +4977,7 @@
         <v>68.86363636363636</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -4936,7 +4990,7 @@
         <v>104.19658</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" ht="15">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -5025,7 +5079,7 @@
         <v>173.06021636363636</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="15">
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
@@ -5110,7 +5164,7 @@
         <v>-228.49871150912855</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="15">
       <c r="A84" s="1" t="s">
         <v>68</v>
       </c>
@@ -5195,7 +5249,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="15">
       <c r="A85" s="1" t="s">
         <v>129</v>
       </c>
@@ -5279,7 +5333,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="15">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -5368,7 +5422,7 @@
         <v>259.5615048545078</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="15">
       <c r="A89" s="9"/>
       <c r="B89" s="8">
         <v>0.05</v>
@@ -5380,7 +5434,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23">
       <c r="A90" s="10" t="s">
         <v>98</v>
       </c>
@@ -5414,7 +5468,7 @@
       <c r="U90" s="16"/>
       <c r="V90" s="16"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23">
       <c r="A91" s="11" t="s">
         <v>99</v>
       </c>
@@ -5425,10 +5479,10 @@
       <c r="C91" s="12"/>
       <c r="D91" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" ht="15">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" ht="15">
       <c r="A98" s="1"/>
     </row>
   </sheetData>
@@ -5445,27 +5499,27 @@
       <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="53" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" style="53" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" style="53" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.90625" style="53" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="53"/>
+    <col min="1" max="1" width="26.375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="53" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="53" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="53" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="53" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="53" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="53" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.875" style="53" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
@@ -5480,7 +5534,7 @@
       </c>
       <c r="M1" s="60"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -5514,7 +5568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -5542,7 +5596,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="53" t="s">
         <v>161</v>
       </c>
@@ -5580,7 +5634,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="53" t="s">
         <v>143</v>
       </c>
@@ -5617,7 +5671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" s="53" t="s">
         <v>144</v>
       </c>
@@ -5650,7 +5704,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="53" t="s">
         <v>145</v>
       </c>
@@ -5670,7 +5724,7 @@
       </c>
       <c r="I7" s="54"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
@@ -5693,7 +5747,7 @@
       </c>
       <c r="M8" s="57"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="51"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
@@ -5712,7 +5766,7 @@
       </c>
       <c r="M9" s="56"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
@@ -5735,7 +5789,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1">
       <c r="A11" s="51" t="s">
         <v>142</v>
       </c>
@@ -5758,7 +5812,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="53" t="s">
         <v>162</v>
       </c>
@@ -5775,7 +5829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -5813,7 +5867,7 @@
       </c>
       <c r="M13" s="54"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
       <c r="G14" s="53" t="s">
         <v>153</v>
       </c>
@@ -5836,24 +5890,24 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="H15" s="54"/>
       <c r="J15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="21.95" customHeight="1">
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
       <c r="G16" s="53" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15" thickBot="1">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" s="68" t="s">
         <v>157</v>
       </c>
@@ -5875,7 +5929,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19"/>
       <c r="B19" s="1" t="s">
         <v>176</v>
@@ -5912,7 +5966,7 @@
         <v>47907.561513717577</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
@@ -5953,7 +6007,7 @@
         <v>-1.6162230312956241</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -5998,7 +6052,7 @@
         <v>0.3278984969733878</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" s="1" t="s">
         <v>180</v>
       </c>
@@ -6014,7 +6068,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -6051,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -6096,7 +6150,7 @@
         <v>-6582.5698679716879</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -6141,7 +6195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" s="1" t="s">
         <v>179</v>
       </c>
@@ -6187,7 +6241,7 @@
         <v>-6562.5698679716879</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6201,7 +6255,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -6246,7 +6300,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6260,7 +6314,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -6306,7 +6360,7 @@
         <v>17437.430132028312</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -6323,7 +6377,7 @@
       <c r="L31"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" s="68" t="s">
         <v>157</v>
       </c>
@@ -6345,7 +6399,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33"/>
       <c r="B33" s="1" t="s">
         <v>176</v>
@@ -6382,7 +6436,7 @@
         <v>41677.996023177642</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="15">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" t="s">
@@ -6420,7 +6474,7 @@
       </c>
       <c r="N34" s="24"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>90</v>
       </c>
@@ -6465,7 +6519,7 @@
         <v>0.78602099321495267</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="15">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
@@ -6481,7 +6535,7 @@
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="15">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -6497,7 +6551,7 @@
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -6543,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -6559,7 +6613,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="15">
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
@@ -6575,7 +6629,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -6620,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -6638,7 +6692,7 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="15">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -6684,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -6698,7 +6752,7 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="15">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -6744,7 +6798,7 @@
         <v>17437.430132028312</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -6758,7 +6812,7 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="15">
       <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
@@ -6803,7 +6857,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -6817,7 +6871,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15">
       <c r="A49" s="3" t="s">
         <v>115</v>
       </c>
@@ -6833,7 +6887,7 @@
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="15">
       <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
@@ -6879,7 +6933,7 @@
         <v>15837.430132028312</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -6893,7 +6947,7 @@
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6903,7 +6957,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -6915,7 +6969,7 @@
       <c r="I53"/>
       <c r="M53"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -6926,14 +6980,14 @@
       <c r="H54"/>
       <c r="J54"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18">
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18">
       <c r="O64"/>
       <c r="P64"/>
     </row>
@@ -6950,12 +7004,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6966,7 +7020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -6977,7 +7031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6988,7 +7042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6999,7 +7053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7010,7 +7064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7021,7 +7075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -7032,7 +7086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -7043,7 +7097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -7054,7 +7108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -7065,7 +7119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -7076,7 +7130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7087,7 +7141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -7098,7 +7152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -7109,7 +7163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -7120,7 +7174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7131,7 +7185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -7142,7 +7196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -7153,7 +7207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -7164,7 +7218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -7175,7 +7229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -7186,7 +7240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -7197,7 +7251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -7208,7 +7262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -7219,7 +7273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -7236,1933 +7290,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFCE835-A550-442C-AE85-1BD2BBFE091E}">
-  <dimension ref="A1:Q62"/>
-  <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="53" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" style="53" customWidth="1"/>
-    <col min="13" max="13" width="22" style="53" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.36328125" style="53" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="53"/>
-    <col min="17" max="17" width="13.26953125" style="53" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="60"/>
-      <c r="O1" s="53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="G2" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" s="56">
-        <v>10</v>
-      </c>
-      <c r="O2" s="53">
-        <f>(1+M2)*(1+$M$3)-1</f>
-        <v>10.220000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="54">
-        <f>$H$14</f>
-        <v>400</v>
-      </c>
-      <c r="I3" s="53">
-        <v>2.5</v>
-      </c>
-      <c r="J3" s="53">
-        <f>I3/M2</f>
-        <v>0.25</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" s="62">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="53">
-        <v>1</v>
-      </c>
-      <c r="C4" s="54">
-        <f>SUM(C5:C7)</f>
-        <v>50000</v>
-      </c>
-      <c r="D4" s="54">
-        <f>C4/$M$2</f>
-        <v>5000</v>
-      </c>
-      <c r="E4" s="54"/>
-      <c r="G4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="54">
-        <f t="shared" ref="H4:H6" si="0">$H$14</f>
-        <v>400</v>
-      </c>
-      <c r="I4" s="53">
-        <v>2</v>
-      </c>
-      <c r="J4" s="53">
-        <f>I4/M2</f>
-        <v>0.2</v>
-      </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="62">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="91">
-        <f>(1+M4)*(1+$M$3)-1</f>
-        <v>0.12200000000000011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="53">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54">
-        <v>20000</v>
-      </c>
-      <c r="D5" s="54">
-        <f>C5/$M$2</f>
-        <v>2000</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="G5" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="54">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="I5" s="53">
-        <f>J5*M2</f>
-        <v>5</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="M5" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="91">
-        <f>(1+M5)*(1+$M$3)-1</f>
-        <v>0.12200000000000011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="53">
-        <v>1</v>
-      </c>
-      <c r="C6" s="54">
-        <v>15000</v>
-      </c>
-      <c r="D6" s="54">
-        <f>C6/$M$2</f>
-        <v>1500</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="G6" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="54">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="I6" s="53">
-        <v>4</v>
-      </c>
-      <c r="J6" s="53">
-        <f>I6/M2</f>
-        <v>0.4</v>
-      </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="53">
-        <v>1</v>
-      </c>
-      <c r="C7" s="54">
-        <v>15000</v>
-      </c>
-      <c r="D7" s="54">
-        <f>C7/$M$2</f>
-        <v>1500</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="G7" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="54">
-        <f>H6*SUM(I3:I5)</f>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="58">
-        <f>SUM(C5:C7)</f>
-        <v>50000</v>
-      </c>
-      <c r="D8" s="58">
-        <f>SUM(D5:D7)</f>
-        <v>5000</v>
-      </c>
-      <c r="E8" s="58"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="57"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="M9" s="56"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="G10" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="53">
-        <v>20</v>
-      </c>
-      <c r="I10" s="53">
-        <f>H10/$M$2</f>
-        <v>2</v>
-      </c>
-      <c r="L10" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="M10" s="56">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="M11" s="67">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="54">
-        <f>C4</f>
-        <v>50000</v>
-      </c>
-      <c r="C12" s="54">
-        <f>B12/$M$2</f>
-        <v>5000</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="G12" s="52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="53">
-        <f>B12*80%</f>
-        <v>40000</v>
-      </c>
-      <c r="C13" s="54">
-        <f>B13/$M$2</f>
-        <v>4000</v>
-      </c>
-      <c r="D13" s="72">
-        <v>0.08</v>
-      </c>
-      <c r="E13" s="53">
-        <v>6</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="M13" s="54"/>
-      <c r="O13" s="118" t="s">
-        <v>245</v>
-      </c>
-      <c r="P13" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q13" s="120" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G14" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="54">
-        <v>400</v>
-      </c>
-      <c r="I14" s="53">
-        <v>6</v>
-      </c>
-      <c r="J14" s="54">
-        <f>H14*I14</f>
-        <v>2400</v>
-      </c>
-      <c r="K14" s="53">
-        <f>I14*M2</f>
-        <v>60</v>
-      </c>
-      <c r="L14" s="53">
-        <f>K14*H14</f>
-        <v>24000</v>
-      </c>
-      <c r="O14" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="P14" s="53">
-        <f>K14</f>
-        <v>60</v>
-      </c>
-      <c r="Q14" s="56">
-        <f>I14</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D15" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="O15" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q15" s="56"/>
-    </row>
-    <row r="16" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="88">
-        <f>(1+D13)/(1+M3)-1</f>
-        <v>5.8823529411764719E-2</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" s="121" t="s">
-        <v>239</v>
-      </c>
-      <c r="P16" s="53">
-        <f>I5</f>
-        <v>5</v>
-      </c>
-      <c r="Q16" s="56">
-        <f>J5</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="O17" s="122" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q17" s="56">
-        <f>Q14-Q16</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="75">
-        <f>O4</f>
-        <v>0.12200000000000011</v>
-      </c>
-      <c r="O18" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="P18" s="53">
-        <f>Q17*M2</f>
-        <v>55</v>
-      </c>
-      <c r="Q18" s="56"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19"/>
-      <c r="B19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" t="s">
-        <v>155</v>
-      </c>
-      <c r="H19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="76">
-        <f>NPV(O4,B37:K37)</f>
-        <v>14247.112730894703</v>
-      </c>
-      <c r="O19" s="121" t="s">
-        <v>147</v>
-      </c>
-      <c r="P19" s="53">
-        <f>I4</f>
-        <v>2</v>
-      </c>
-      <c r="Q19" s="56">
-        <f>J4</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J20" t="s">
-        <v>156</v>
-      </c>
-      <c r="K20" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="M20" s="24">
-        <f>NPV(O5,B22:K22)/NPV(O4,B23:K23)</f>
-        <v>1.2195905245832674</v>
-      </c>
-      <c r="O20" s="121" t="s">
-        <v>148</v>
-      </c>
-      <c r="P20" s="53">
-        <f>I6</f>
-        <v>4</v>
-      </c>
-      <c r="Q20" s="56">
-        <f>J6</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-      <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21">
-        <v>9</v>
-      </c>
-      <c r="K21">
-        <v>10</v>
-      </c>
-      <c r="L21" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="37">
-        <f>IRR(B37:K37)</f>
-        <v>0.33534077401956885</v>
-      </c>
-      <c r="O21" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="P21" s="53">
-        <f>I3</f>
-        <v>2.5</v>
-      </c>
-      <c r="Q21" s="56">
-        <f>J3</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <f>$L$14*(1+$M$3)^C21</f>
-        <v>24969.599999999999</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22:K22" si="1">$L$14*(1+$M$3)^D21</f>
-        <v>25468.991999999998</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>25978.37184</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>26497.9392768</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>27027.898062336</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>27568.456023582716</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>28119.825144054372</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>28682.221646935461</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>29255.866079874169</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="4"/>
-      <c r="O22" s="122" t="s">
-        <v>243</v>
-      </c>
-      <c r="P22" s="53">
-        <f>P18-P19-P20-P21</f>
-        <v>46.5</v>
-      </c>
-      <c r="Q22" s="56"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23">
-        <f>B24+B25+B31+B32</f>
-        <v>10200</v>
-      </c>
-      <c r="C23" s="2">
-        <f>C24+C25+C31+C32</f>
-        <v>21102.387758143603</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:K23" si="2">D24+D25+D31+D32</f>
-        <v>21347.9221581436</v>
-      </c>
-      <c r="E23" s="2">
-        <f>E24+E25+E31+E32</f>
-        <v>21598.3672461436</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>21853.821235903601</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>22114.384305458803</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>22380.158636405104</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>13825.580695826733</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>14102.092309743268</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>14384.134155938134</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="4"/>
-      <c r="O23" s="123" t="s">
-        <v>244</v>
-      </c>
-      <c r="P23" s="124">
-        <f>P22*H14</f>
-        <v>18600</v>
-      </c>
-      <c r="Q23" s="67"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:K24" si="3">($H$10*$H$14)*(1+$M$3)^C21</f>
-        <v>8323.2000000000007</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
-        <v>8489.6639999999989</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
-        <v>8659.4572800000005</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>8832.6464255999999</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>9009.2993541120013</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>9189.4853411942386</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>9373.2750480181239</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>9560.7405489784869</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>9751.9553599580577</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <f>$I$7*(1+$M$3)^C21</f>
-        <v>3953.52</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25:K25" si="4">$I$7*(1+$M$3)^D21</f>
-        <v>4032.5903999999996</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="4"/>
-        <v>4113.2422079999997</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="4"/>
-        <v>4195.5070521600001</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="4"/>
-        <v>4279.4171932032004</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="4"/>
-        <v>4365.0055370672635</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="4"/>
-        <v>4452.3056478086091</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="4"/>
-        <v>4541.3517607647809</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="4"/>
-        <v>4632.1787959800768</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="2">
-        <f>$C$8*(1+$M$3)^B21</f>
-        <v>51000</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28">
-        <f>$B$13*(1+$M$3)^B21</f>
-        <v>40800</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="82">
-        <f t="shared" ref="C29:H29" si="5">PPMT($D$13, B21, $E$13,-$B$28)</f>
-        <v>5561.6677581436015</v>
-      </c>
-      <c r="D29" s="82">
-        <f t="shared" si="5"/>
-        <v>6006.6011787950893</v>
-      </c>
-      <c r="E29" s="82">
-        <f t="shared" si="5"/>
-        <v>6487.1292730986961</v>
-      </c>
-      <c r="F29" s="82">
-        <f t="shared" si="5"/>
-        <v>7006.0996149465918</v>
-      </c>
-      <c r="G29" s="82">
-        <f t="shared" si="5"/>
-        <v>7566.5875841423194</v>
-      </c>
-      <c r="H29" s="82">
-        <f t="shared" si="5"/>
-        <v>8171.9145908737055</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
-        <f t="shared" ref="C30:H30" si="6">IPMT($D$13,B21,$E$13,-$B$28)</f>
-        <v>3264</v>
-      </c>
-      <c r="D30" s="16">
-        <f t="shared" si="6"/>
-        <v>2819.0665793485127</v>
-      </c>
-      <c r="E30" s="16">
-        <f t="shared" si="6"/>
-        <v>2338.538485044905</v>
-      </c>
-      <c r="F30" s="16">
-        <f t="shared" si="6"/>
-        <v>1819.5681431970095</v>
-      </c>
-      <c r="G30" s="16">
-        <f t="shared" si="6"/>
-        <v>1259.0801740012819</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" si="6"/>
-        <v>653.75316726989638</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31">
-        <f>SUM(B29:B30)</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="82">
-        <f>SUM(C29:C30)</f>
-        <v>8825.6677581436015</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:K31" si="7">SUM(D29:D30)</f>
-        <v>8825.6677581436015</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="7"/>
-        <v>8825.6677581436015</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="7"/>
-        <v>8825.6677581436015</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="7"/>
-        <v>8825.6677581436015</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="7"/>
-        <v>8825.6677581436015</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32">
-        <f>B27*20%</f>
-        <v>10200</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <f>($H$14*$I$6)*(1+$M$3)^C21</f>
-        <v>1664.6399999999999</v>
-      </c>
-      <c r="D33">
-        <f>($H$14*$I$6)*(1+$M$3)^D21</f>
-        <v>1697.9327999999998</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ref="E33:K33" si="8">($H$14*$I$6)*(1+$M$3)^E21</f>
-        <v>1731.8914560000001</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="8"/>
-        <v>1766.5292851199999</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="8"/>
-        <v>1801.8598708224001</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="8"/>
-        <v>1837.8970682388476</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="8"/>
-        <v>1874.6550096036249</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="8"/>
-        <v>1912.1481097956973</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="8"/>
-        <v>1950.3910719916114</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ref="B35:K35" si="9">B22-B23</f>
-        <v>-10200</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="9"/>
-        <v>3867.2122418563958</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="9"/>
-        <v>4121.0698418563989</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="9"/>
-        <v>4380.0045938563999</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="9"/>
-        <v>4644.1180408963992</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="9"/>
-        <v>4913.513756877197</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="9"/>
-        <v>5188.2973871776121</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="9"/>
-        <v>14294.244448227639</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="9"/>
-        <v>14580.129337192193</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="9"/>
-        <v>14871.731923936035</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L36" s="1"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="85">
-        <f t="shared" ref="B37:K37" si="10">B35-B33</f>
-        <v>-10200</v>
-      </c>
-      <c r="C37" s="85">
-        <f t="shared" si="10"/>
-        <v>2202.572241856396</v>
-      </c>
-      <c r="D37" s="85">
-        <f t="shared" si="10"/>
-        <v>2423.1370418563993</v>
-      </c>
-      <c r="E37" s="85">
-        <f t="shared" si="10"/>
-        <v>2648.1131378563996</v>
-      </c>
-      <c r="F37" s="85">
-        <f t="shared" si="10"/>
-        <v>2877.588755776399</v>
-      </c>
-      <c r="G37" s="85">
-        <f t="shared" si="10"/>
-        <v>3111.6538860547971</v>
-      </c>
-      <c r="H37" s="85">
-        <f t="shared" si="10"/>
-        <v>3350.4003189387645</v>
-      </c>
-      <c r="I37" s="85">
-        <f t="shared" si="10"/>
-        <v>12419.589438624014</v>
-      </c>
-      <c r="J37" s="85">
-        <f t="shared" si="10"/>
-        <v>12667.981227396496</v>
-      </c>
-      <c r="K37" s="85">
-        <f t="shared" si="10"/>
-        <v>12921.340851944424</v>
-      </c>
-      <c r="L37" s="74"/>
-      <c r="M37" s="75">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="M38" s="76">
-        <f>NPV(M37,B56:K56)</f>
-        <v>14247.112730894709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="M39" s="24">
-        <f>NPV(M37,B41:K41)/NPV(M37,B42:K42)</f>
-        <v>1.219590524583267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40">
-        <v>6</v>
-      </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-      <c r="I40">
-        <v>8</v>
-      </c>
-      <c r="J40">
-        <v>9</v>
-      </c>
-      <c r="K40">
-        <v>10</v>
-      </c>
-      <c r="L40" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="M40" s="37">
-        <f>IRR(B56:K56)</f>
-        <v>0.30915762158932103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:K41" si="11">C22/(1+$M$3)^C21</f>
-        <v>24000</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42">
-        <f>B43+B44+B50+B51</f>
-        <v>10000</v>
-      </c>
-      <c r="C42" s="2">
-        <f>C43+C44+C50+C51</f>
-        <v>20282.956322706268</v>
-      </c>
-      <c r="D42" s="2">
-        <f>D43+D44+D50+D51</f>
-        <v>20116.623845790462</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ref="E42" si="12">E43+E44+E50+E51</f>
-        <v>19953.552789990645</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ref="F42" si="13">F43+F44+F50+F51</f>
-        <v>19793.679205873181</v>
-      </c>
-      <c r="G42">
-        <f t="shared" ref="G42" si="14">G43+G44+G50+G51</f>
-        <v>19636.940397914885</v>
-      </c>
-      <c r="H42">
-        <f t="shared" ref="H42" si="15">H43+H44+H50+H51</f>
-        <v>19483.274899916556</v>
-      </c>
-      <c r="I42">
-        <f t="shared" ref="I42" si="16">I43+I44+I50+I51</f>
-        <v>11800</v>
-      </c>
-      <c r="J42">
-        <f t="shared" ref="J42" si="17">J43+J44+J50+J51</f>
-        <v>11800</v>
-      </c>
-      <c r="K42">
-        <f t="shared" ref="K42" si="18">K43+K44+K50+K51</f>
-        <v>11800</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:K43" si="19">C24/(1+$M$3)^C40</f>
-        <v>8000.0000000000009</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="19"/>
-        <v>7999.9999999999991</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="19"/>
-        <v>8000.0000000000009</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="19"/>
-        <v>8000</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="19"/>
-        <v>8000.0000000000009</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="19"/>
-        <v>8000</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="19"/>
-        <v>8000</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="19"/>
-        <v>8000</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="19"/>
-        <v>8000.0000000000009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2">
-        <f t="shared" ref="C44:K44" si="20">C25/(1+$M$3)^C40</f>
-        <v>3800</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="20"/>
-        <v>3800</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="20"/>
-        <v>3799.9999999999995</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="20"/>
-        <v>3800</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" si="20"/>
-        <v>3800</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="20"/>
-        <v>3800</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="20"/>
-        <v>3800</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="20"/>
-        <v>3800</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="20"/>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="2">
-        <f>B27/(1+$M$3)^B40</f>
-        <v>50000</v>
-      </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47">
-        <f>B28/(1+$M$3)^B40</f>
-        <v>40000</v>
-      </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" s="82">
-        <f t="shared" ref="C48:K48" si="21">C29/(1+$M$3)^C40</f>
-        <v>5345.701420745484</v>
-      </c>
-      <c r="D48" s="82">
-        <f t="shared" si="21"/>
-        <v>5660.1544454952182</v>
-      </c>
-      <c r="E48" s="82">
-        <f t="shared" si="21"/>
-        <v>5993.1047069949364</v>
-      </c>
-      <c r="F48" s="82">
-        <f t="shared" si="21"/>
-        <v>6345.6402779946384</v>
-      </c>
-      <c r="G48" s="82">
-        <f t="shared" si="21"/>
-        <v>6718.9132355237343</v>
-      </c>
-      <c r="H48" s="82">
-        <f t="shared" si="21"/>
-        <v>7114.1434258486624</v>
-      </c>
-      <c r="I48" s="82">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="82">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="82">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" s="16">
-        <f t="shared" ref="C49:K49" si="22">C30/(1+$M$3)^C40</f>
-        <v>3137.2549019607845</v>
-      </c>
-      <c r="D49" s="16">
-        <f t="shared" si="22"/>
-        <v>2656.4694002952419</v>
-      </c>
-      <c r="E49" s="16">
-        <f t="shared" si="22"/>
-        <v>2160.4480829957092</v>
-      </c>
-      <c r="F49" s="16">
-        <f t="shared" si="22"/>
-        <v>1648.0389278785437</v>
-      </c>
-      <c r="G49" s="16">
-        <f t="shared" si="22"/>
-        <v>1118.0271623911494</v>
-      </c>
-      <c r="H49" s="16">
-        <f t="shared" si="22"/>
-        <v>569.1314740678929</v>
-      </c>
-      <c r="I49" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50">
-        <f>SUM(B48:B49)</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="82">
-        <f>SUM(C48:C49)</f>
-        <v>8482.9563227062681</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ref="D50" si="23">SUM(D48:D49)</f>
-        <v>8316.6238457904601</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ref="E50" si="24">SUM(E48:E49)</f>
-        <v>8153.5527899906456</v>
-      </c>
-      <c r="F50" s="82">
-        <f>SUM(F48:F49)</f>
-        <v>7993.6792058731826</v>
-      </c>
-      <c r="G50" s="82">
-        <f>SUM(G48:G49)</f>
-        <v>7836.9403979148838</v>
-      </c>
-      <c r="H50">
-        <f t="shared" ref="H50" si="25">SUM(H48:H49)</f>
-        <v>7683.2748999165551</v>
-      </c>
-      <c r="I50">
-        <f t="shared" ref="I50" si="26">SUM(I48:I49)</f>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f t="shared" ref="J50" si="27">SUM(J48:J49)</f>
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <f t="shared" ref="K50" si="28">SUM(K48:K49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51">
-        <f>B32/(1+$M$3)^B40</f>
-        <v>10000</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:K52" si="29">C33/(1+$M$3)^C40</f>
-        <v>1600</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="29"/>
-        <v>1600</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="29"/>
-        <v>1600</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="29"/>
-        <v>1600</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="29"/>
-        <v>1600</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="29"/>
-        <v>1600</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="29"/>
-        <v>1600</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="29"/>
-        <v>1600</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="29"/>
-        <v>1600</v>
-      </c>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ref="B54:K54" si="30">B41-B42</f>
-        <v>-10000</v>
-      </c>
-      <c r="C54" s="2">
-        <f t="shared" si="30"/>
-        <v>3717.0436772937319</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="30"/>
-        <v>3883.3761542095381</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="30"/>
-        <v>4046.4472100093553</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="30"/>
-        <v>4206.3207941268192</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="30"/>
-        <v>4363.0596020851153</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="30"/>
-        <v>4516.725100083444</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="30"/>
-        <v>12200</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="30"/>
-        <v>12200</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="30"/>
-        <v>12200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L55"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="85">
-        <f t="shared" ref="B56:K56" si="31">B54-B52</f>
-        <v>-10000</v>
-      </c>
-      <c r="C56" s="85">
-        <f t="shared" si="31"/>
-        <v>2117.0436772937319</v>
-      </c>
-      <c r="D56" s="89">
-        <f t="shared" si="31"/>
-        <v>2283.3761542095381</v>
-      </c>
-      <c r="E56" s="85">
-        <f t="shared" si="31"/>
-        <v>2446.4472100093553</v>
-      </c>
-      <c r="F56" s="85">
-        <f t="shared" si="31"/>
-        <v>2606.3207941268192</v>
-      </c>
-      <c r="G56" s="85">
-        <f t="shared" si="31"/>
-        <v>2763.0596020851153</v>
-      </c>
-      <c r="H56" s="85">
-        <f t="shared" si="31"/>
-        <v>2916.725100083444</v>
-      </c>
-      <c r="I56" s="85">
-        <f t="shared" si="31"/>
-        <v>10600</v>
-      </c>
-      <c r="J56" s="85">
-        <f t="shared" si="31"/>
-        <v>10600</v>
-      </c>
-      <c r="K56" s="85">
-        <f t="shared" si="31"/>
-        <v>10600</v>
-      </c>
-      <c r="N56"/>
-      <c r="O56"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="I57"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="M62"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF832C-4A65-4FC2-BE35-F9DA62EB6B4E}">
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
@@ -9198,7 +7341,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -9247,7 +7390,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -9290,7 +7433,7 @@
       </c>
       <c r="U3" s="53"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="53" t="s">
         <v>161</v>
       </c>
@@ -9344,7 +7487,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
       <c r="A5" s="53" t="s">
         <v>143</v>
       </c>
@@ -9398,7 +7541,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21">
       <c r="A6" s="53" t="s">
         <v>144</v>
       </c>
@@ -9441,7 +7584,7 @@
       <c r="R6" s="54"/>
       <c r="S6" s="54"/>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
       <c r="A7" s="53" t="s">
         <v>145</v>
       </c>
@@ -9484,7 +7627,7 @@
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
       <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
@@ -9520,7 +7663,7 @@
       </c>
       <c r="S8" s="57"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="51"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -9551,7 +7694,7 @@
       </c>
       <c r="S9" s="56"/>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1">
       <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
@@ -9588,7 +7731,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
       <c r="A11" s="51" t="s">
         <v>142</v>
       </c>
@@ -9623,7 +7766,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="53" t="s">
         <v>162</v>
       </c>
@@ -9656,7 +7799,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="53"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -9702,7 +7845,7 @@
       <c r="Q13" s="51"/>
       <c r="S13" s="54"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -9740,7 +7883,7 @@
       <c r="Q14" s="53"/>
       <c r="S14" s="53"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -9763,7 +7906,7 @@
       <c r="R15" s="53"/>
       <c r="S15" s="53"/>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -9789,7 +7932,7 @@
       <c r="R16" s="53"/>
       <c r="S16" s="53"/>
     </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="15" thickBot="1">
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
@@ -9804,7 +7947,7 @@
       <c r="P17" s="53"/>
       <c r="Q17" s="53"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="68" t="s">
         <v>157</v>
       </c>
@@ -9826,7 +7969,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15">
       <c r="B19" t="s">
         <v>164</v>
       </c>
@@ -9856,7 +7999,7 @@
         <v>41612.629971399925</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="15">
       <c r="B20" t="s">
         <v>154</v>
       </c>
@@ -9895,7 +8038,7 @@
         <v>10.831160280245678</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -9937,7 +8080,7 @@
         <v>0.33046070707211062</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="15">
       <c r="A22" s="78" t="s">
         <v>183</v>
       </c>
@@ -9983,7 +8126,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15">
       <c r="A23" s="78" t="s">
         <v>180</v>
       </c>
@@ -10030,7 +8173,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" s="53" customFormat="1" ht="15">
       <c r="A24" s="94" t="s">
         <v>201</v>
       </c>
@@ -10047,7 +8190,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="53" customFormat="1" ht="15">
       <c r="A25" s="95" t="s">
         <v>184</v>
       </c>
@@ -10067,7 +8210,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15">
       <c r="A26" s="94" t="s">
         <v>191</v>
       </c>
@@ -10113,7 +8256,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15">
       <c r="A27" s="94" t="s">
         <v>199</v>
       </c>
@@ -10159,13 +8302,13 @@
       <c r="L27" s="1"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15">
       <c r="A29" s="1" t="s">
         <v>194</v>
       </c>
@@ -10212,7 +8355,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -10227,7 +8370,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15">
       <c r="A31" s="84" t="s">
         <v>200</v>
       </c>
@@ -10274,12 +8417,12 @@
       <c r="L31" s="1"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15">
       <c r="A32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15">
       <c r="A33" s="86" t="s">
         <v>195</v>
       </c>
@@ -10292,7 +8435,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
@@ -10329,7 +8472,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15">
       <c r="A35" s="78" t="s">
         <v>183</v>
       </c>
@@ -10375,7 +8518,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15">
       <c r="A36" s="78" t="s">
         <v>180</v>
       </c>
@@ -10422,7 +8565,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="53" customFormat="1" ht="15">
       <c r="A37" s="94" t="s">
         <v>201</v>
       </c>
@@ -10439,7 +8582,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="53" customFormat="1" ht="15">
       <c r="A38" s="95" t="s">
         <v>184</v>
       </c>
@@ -10459,7 +8602,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15">
       <c r="A39" s="94" t="s">
         <v>202</v>
       </c>
@@ -10505,7 +8648,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1">
       <c r="A40" s="94" t="s">
         <v>203</v>
       </c>
@@ -10551,7 +8694,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="L41" s="74"/>
@@ -10559,7 +8702,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
@@ -10611,7 +8754,7 @@
         <v>41612.62997139994</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15">
       <c r="A43" s="53"/>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
@@ -10631,7 +8774,7 @@
         <v>10.831160280245674</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1">
       <c r="A44" s="84" t="s">
         <v>200</v>
       </c>
@@ -10683,66 +8826,66 @@
         <v>0.30437324222756001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13">
       <c r="L45" s="53"/>
       <c r="M45" s="53"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="L46" s="53"/>
       <c r="M46" s="53"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="L47" s="53"/>
       <c r="M47" s="53"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="L48" s="53"/>
       <c r="M48" s="53"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:13">
       <c r="L49" s="53"/>
       <c r="M49" s="53"/>
     </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:13">
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
     </row>
-    <row r="51" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:13">
       <c r="L51" s="53"/>
       <c r="M51" s="53"/>
     </row>
-    <row r="52" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:13">
       <c r="L52" s="53"/>
       <c r="M52" s="53"/>
     </row>
-    <row r="53" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:13">
       <c r="L53" s="53"/>
       <c r="M53" s="53"/>
     </row>
-    <row r="54" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:13">
       <c r="L54" s="53"/>
       <c r="M54" s="53"/>
     </row>
-    <row r="55" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="12:13">
       <c r="L55" s="53"/>
       <c r="M55" s="53"/>
     </row>
-    <row r="56" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="12:13">
       <c r="L56" s="53"/>
       <c r="M56" s="53"/>
     </row>
-    <row r="57" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="12:13">
       <c r="L57" s="53"/>
       <c r="M57" s="53"/>
     </row>
-    <row r="58" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="12:13">
       <c r="L58" s="53"/>
       <c r="M58" s="53"/>
     </row>
-    <row r="59" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="12:13">
       <c r="M59" s="53"/>
     </row>
-    <row r="60" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="12:13">
       <c r="L60" s="53"/>
       <c r="M60" s="53"/>
     </row>
@@ -10751,28 +8894,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC64B072-3C68-4241-99EE-594B79FEF0AB}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -10798,7 +8941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -10811,7 +8954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18">
       <c r="A4" s="113" t="s">
         <v>206</v>
       </c>
@@ -10834,7 +8977,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15">
       <c r="A5" s="113" t="s">
         <v>207</v>
       </c>
@@ -10884,7 +9027,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15">
       <c r="A6" s="113"/>
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
@@ -10922,7 +9065,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15">
       <c r="A7" s="51" t="s">
         <v>208</v>
       </c>
@@ -10963,7 +9106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18">
       <c r="A8" s="53" t="s">
         <v>211</v>
       </c>
@@ -10977,7 +9120,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15">
       <c r="A9" s="53" t="s">
         <v>209</v>
       </c>
@@ -10994,7 +9137,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15">
       <c r="A10" s="111" t="s">
         <v>210</v>
       </c>
@@ -11009,8 +9152,8 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1"/>
+    <row r="12" spans="1:18" ht="15">
       <c r="A12" s="59" t="s">
         <v>100</v>
       </c>
@@ -11020,7 +9163,7 @@
       </c>
       <c r="D12" s="57"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15">
       <c r="A13" s="61" t="s">
         <v>160</v>
       </c>
@@ -11032,7 +9175,7 @@
       </c>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15">
       <c r="A14" s="61" t="s">
         <v>234</v>
       </c>
@@ -11046,7 +9189,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="A15" s="63" t="s">
         <v>235</v>
       </c>
@@ -11060,11 +9203,11 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15">
       <c r="F16" s="51"/>
       <c r="G16" s="90"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15">
       <c r="A17" s="19" t="s">
         <v>114</v>
       </c>
@@ -11073,7 +9216,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="90"/>
     </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" ht="15" thickBot="1">
       <c r="B18" t="s">
         <v>205</v>
       </c>
@@ -11081,7 +9224,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="15">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
@@ -11127,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15">
       <c r="A20" s="78" t="s">
         <v>183</v>
       </c>
@@ -11172,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="15">
       <c r="A21" s="78" t="s">
         <v>180</v>
       </c>
@@ -11184,7 +9327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="A22" s="83" t="s">
         <v>191</v>
       </c>
@@ -11196,82 +9339,1993 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="83" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="15">
       <c r="A24" s="83" t="s">
         <v>193</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="53"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="15">
       <c r="A25" s="80" t="s">
         <v>184</v>
       </c>
       <c r="U25" s="52"/>
       <c r="V25" s="53"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22">
       <c r="A26" s="80" t="s">
         <v>185</v>
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="53"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22">
       <c r="A27" s="80" t="s">
         <v>186</v>
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="53"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22">
       <c r="A28" s="80" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22">
       <c r="A29" s="79" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22">
       <c r="A30" s="79" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22">
       <c r="A31" s="81" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="15">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="53"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="84" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="92" t="s">
         <v>198</v>
       </c>
       <c r="B39" s="93"/>
       <c r="C39" s="93"/>
       <c r="D39" s="93"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFCE835-A550-442C-AE85-1BD2BBFE091E}">
+  <dimension ref="A1:Q62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="53" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="53" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="53" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="53" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="53" customWidth="1"/>
+    <col min="13" max="13" width="22" style="53" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="53" customWidth="1"/>
+    <col min="16" max="16" width="8.75" style="53"/>
+    <col min="17" max="17" width="13.25" style="53" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15">
+      <c r="A1" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="60"/>
+      <c r="O1" s="53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15">
+      <c r="A2" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="G2" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="56">
+        <v>10</v>
+      </c>
+      <c r="O2" s="53">
+        <f>(1+M2)*(1+$M$3)-1</f>
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="54">
+        <f>$H$14</f>
+        <v>400</v>
+      </c>
+      <c r="I3" s="53">
+        <v>2.5</v>
+      </c>
+      <c r="J3" s="53">
+        <f>I3/M2</f>
+        <v>0.25</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="62">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15">
+      <c r="A4" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="53">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54">
+        <f>SUM(C5:C7)</f>
+        <v>50000</v>
+      </c>
+      <c r="D4" s="54">
+        <f>C4/$M$2</f>
+        <v>5000</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="G4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="54">
+        <f t="shared" ref="H4:H6" si="0">$H$14</f>
+        <v>400</v>
+      </c>
+      <c r="I4" s="53">
+        <v>2</v>
+      </c>
+      <c r="J4" s="53">
+        <f>I4/M2</f>
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="91">
+        <f>(1+M4)*(1+$M$3)-1</f>
+        <v>0.12200000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A5" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="53">
+        <v>1</v>
+      </c>
+      <c r="C5" s="54">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="54">
+        <f>C5/$M$2</f>
+        <v>2000</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="G5" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="54">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I5" s="53">
+        <f>J5*M2</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="91">
+        <f>(1+M5)*(1+$M$3)-1</f>
+        <v>0.12200000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="53">
+        <v>1</v>
+      </c>
+      <c r="C6" s="54">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="54">
+        <f>C6/$M$2</f>
+        <v>1500</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="G6" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="54">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I6" s="53">
+        <v>4</v>
+      </c>
+      <c r="J6" s="53">
+        <f>I6/M2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A7" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="53">
+        <v>1</v>
+      </c>
+      <c r="C7" s="54">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="54">
+        <f>C7/$M$2</f>
+        <v>1500</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="G7" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="54">
+        <f>H6*SUM(I3:I5)</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15">
+      <c r="A8" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="58">
+        <f>SUM(C5:C7)</f>
+        <v>50000</v>
+      </c>
+      <c r="D8" s="58">
+        <f>SUM(D5:D7)</f>
+        <v>5000</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="57"/>
+    </row>
+    <row r="9" spans="1:17" ht="15">
+      <c r="A9" s="51"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="M9" s="56"/>
+    </row>
+    <row r="10" spans="1:17" ht="15">
+      <c r="A10" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="G10" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="53">
+        <v>20</v>
+      </c>
+      <c r="I10" s="53">
+        <f>H10/$M$2</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="56">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A11" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" s="67">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A12" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="54">
+        <f>C4</f>
+        <v>50000</v>
+      </c>
+      <c r="C12" s="54">
+        <f>B12/$M$2</f>
+        <v>5000</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="G12" s="52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A13" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="53">
+        <f>B12*80%</f>
+        <v>40000</v>
+      </c>
+      <c r="C13" s="54">
+        <f>B13/$M$2</f>
+        <v>4000</v>
+      </c>
+      <c r="D13" s="72">
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="53">
+        <v>6</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="O13" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="119" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" s="120" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="G14" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="54">
+        <v>400</v>
+      </c>
+      <c r="I14" s="53">
+        <v>6</v>
+      </c>
+      <c r="J14" s="54">
+        <f>H14*I14</f>
+        <v>2400</v>
+      </c>
+      <c r="K14" s="53">
+        <f>I14*M2</f>
+        <v>60</v>
+      </c>
+      <c r="L14" s="53">
+        <f>K14*H14</f>
+        <v>24000</v>
+      </c>
+      <c r="O14" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" s="53">
+        <f>K14</f>
+        <v>60</v>
+      </c>
+      <c r="Q14" s="56">
+        <f>I14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15">
+      <c r="D15" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="O15" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q15" s="56"/>
+    </row>
+    <row r="16" spans="1:17" ht="21.95" customHeight="1">
+      <c r="D16" s="88">
+        <f>(1+D13)/(1+M3)-1</f>
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="53">
+        <f>I5</f>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="56">
+        <f>J5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="O17" s="122" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q17" s="56">
+        <f>Q14-Q16</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15">
+      <c r="A18" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75">
+        <f>O4</f>
+        <v>0.12200000000000011</v>
+      </c>
+      <c r="O18" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="P18" s="53">
+        <f>Q17*M2</f>
+        <v>55</v>
+      </c>
+      <c r="Q18" s="56"/>
+    </row>
+    <row r="19" spans="1:17" ht="15">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="76">
+        <f>NPV(O4,B37:K37)</f>
+        <v>14247.112730894703</v>
+      </c>
+      <c r="O19" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="53">
+        <f>I4</f>
+        <v>2</v>
+      </c>
+      <c r="Q19" s="56">
+        <f>J4</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" s="24">
+        <f>NPV(O5,B22:K22)/NPV(O4,B23:K23)</f>
+        <v>1.2195905245832674</v>
+      </c>
+      <c r="O20" s="121" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="53">
+        <f>I6</f>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="56">
+        <f>J6</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="37">
+        <f>IRR(B37:K37)</f>
+        <v>0.33534077401956885</v>
+      </c>
+      <c r="O21" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="53">
+        <f>I3</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q21" s="56">
+        <f>J3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15">
+      <c r="A22" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>$L$14*(1+$M$3)^C21</f>
+        <v>24969.599999999999</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:K22" si="1">$L$14*(1+$M$3)^D21</f>
+        <v>25468.991999999998</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>25978.37184</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>26497.9392768</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>27027.898062336</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>27568.456023582716</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>28119.825144054372</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>28682.221646935461</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>29255.866079874169</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="4"/>
+      <c r="O22" s="122" t="s">
+        <v>243</v>
+      </c>
+      <c r="P22" s="53">
+        <f>P18-P19-P20-P21</f>
+        <v>46.5</v>
+      </c>
+      <c r="Q22" s="56"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A23" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23">
+        <f>B24+B25+B31+B32</f>
+        <v>10200</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C24+C25+C31+C32</f>
+        <v>21102.387758143603</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:K23" si="2">D24+D25+D31+D32</f>
+        <v>21347.9221581436</v>
+      </c>
+      <c r="E23" s="2">
+        <f>E24+E25+E31+E32</f>
+        <v>21598.3672461436</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>21853.821235903601</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>22114.384305458803</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>22380.158636405104</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>13825.580695826733</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>14102.092309743268</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>14384.134155938134</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="4"/>
+      <c r="O23" s="123" t="s">
+        <v>244</v>
+      </c>
+      <c r="P23" s="124">
+        <f>P22*H14</f>
+        <v>18600</v>
+      </c>
+      <c r="Q23" s="67"/>
+    </row>
+    <row r="24" spans="1:17" ht="15">
+      <c r="A24" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:K24" si="3">($H$10*$H$14)*(1+$M$3)^C21</f>
+        <v>8323.2000000000007</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>8489.6639999999989</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>8659.4572800000005</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>8832.6464255999999</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>9009.2993541120013</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>9189.4853411942386</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>9373.2750480181239</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>9560.7405489784869</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>9751.9553599580577</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" ht="15">
+      <c r="A25" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <f>$I$7*(1+$M$3)^C21</f>
+        <v>3953.52</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:K25" si="4">$I$7*(1+$M$3)^D21</f>
+        <v>4032.5903999999996</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="4"/>
+        <v>4113.2422079999997</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="4"/>
+        <v>4195.5070521600001</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="4"/>
+        <v>4279.4171932032004</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="4"/>
+        <v>4365.0055370672635</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="4"/>
+        <v>4452.3056478086091</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>4541.3517607647809</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="4"/>
+        <v>4632.1787959800768</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" ht="15">
+      <c r="A26" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" ht="15">
+      <c r="A27" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="2">
+        <f>$C$8*(1+$M$3)^B21</f>
+        <v>51000</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" ht="15">
+      <c r="A28" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28">
+        <f>$B$13*(1+$M$3)^B21</f>
+        <v>40800</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" ht="15">
+      <c r="A29" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="82">
+        <f>PPMT($D$13, B21, $E$13,-$B$28)</f>
+        <v>5561.6677581436015</v>
+      </c>
+      <c r="D29" s="82">
+        <f t="shared" ref="C29:H29" si="5">PPMT($D$13, C21, $E$13,-$B$28)</f>
+        <v>6006.6011787950893</v>
+      </c>
+      <c r="E29" s="82">
+        <f t="shared" si="5"/>
+        <v>6487.1292730986961</v>
+      </c>
+      <c r="F29" s="82">
+        <f t="shared" si="5"/>
+        <v>7006.0996149465918</v>
+      </c>
+      <c r="G29" s="82">
+        <f t="shared" si="5"/>
+        <v>7566.5875841423194</v>
+      </c>
+      <c r="H29" s="82">
+        <f t="shared" si="5"/>
+        <v>8171.9145908737055</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" ht="15">
+      <c r="A30" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <f>IPMT($D$13,B21,$E$13,-$B$28)</f>
+        <v>3264</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" ref="C30:H30" si="6">IPMT($D$13,C21,$E$13,-$B$28)</f>
+        <v>2819.0665793485127</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="6"/>
+        <v>2338.538485044905</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="6"/>
+        <v>1819.5681431970095</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="6"/>
+        <v>1259.0801740012819</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="6"/>
+        <v>653.75316726989638</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" ht="15">
+      <c r="A31" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B29:B30)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="82">
+        <f>SUM(C29:C30)</f>
+        <v>8825.6677581436015</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:K31" si="7">SUM(D29:D30)</f>
+        <v>8825.6677581436015</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="7"/>
+        <v>8825.6677581436015</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>8825.6677581436015</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>8825.6677581436015</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>8825.6677581436015</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" ht="15">
+      <c r="A32" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32">
+        <f>B27*20%</f>
+        <v>10200</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="15">
+      <c r="A33" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>($H$14*$I$6)*(1+$M$3)^C21</f>
+        <v>1664.6399999999999</v>
+      </c>
+      <c r="D33">
+        <f>($H$14*$I$6)*(1+$M$3)^D21</f>
+        <v>1697.9327999999998</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:K33" si="8">($H$14*$I$6)*(1+$M$3)^E21</f>
+        <v>1731.8914560000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>1766.5292851199999</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="8"/>
+        <v>1801.8598708224001</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>1837.8970682388476</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>1874.6550096036249</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>1912.1481097956973</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="8"/>
+        <v>1950.3910719916114</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" ht="15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:K35" si="9">B22-B23</f>
+        <v>-10200</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="9"/>
+        <v>3867.2122418563958</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>4121.0698418563989</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="9"/>
+        <v>4380.0045938563999</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="9"/>
+        <v>4644.1180408963992</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>4913.513756877197</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>5188.2973871776121</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="9"/>
+        <v>14294.244448227639</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>14580.129337192193</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>14871.731923936035</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1">
+      <c r="L36" s="1"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" ht="15">
+      <c r="A37" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="85">
+        <f t="shared" ref="B37:K37" si="10">B35-B33</f>
+        <v>-10200</v>
+      </c>
+      <c r="C37" s="85">
+        <f t="shared" si="10"/>
+        <v>2202.572241856396</v>
+      </c>
+      <c r="D37" s="85">
+        <f t="shared" si="10"/>
+        <v>2423.1370418563993</v>
+      </c>
+      <c r="E37" s="85">
+        <f t="shared" si="10"/>
+        <v>2648.1131378563996</v>
+      </c>
+      <c r="F37" s="85">
+        <f t="shared" si="10"/>
+        <v>2877.588755776399</v>
+      </c>
+      <c r="G37" s="85">
+        <f t="shared" si="10"/>
+        <v>3111.6538860547971</v>
+      </c>
+      <c r="H37" s="85">
+        <f t="shared" si="10"/>
+        <v>3350.4003189387645</v>
+      </c>
+      <c r="I37" s="85">
+        <f t="shared" si="10"/>
+        <v>12419.589438624014</v>
+      </c>
+      <c r="J37" s="85">
+        <f t="shared" si="10"/>
+        <v>12667.981227396496</v>
+      </c>
+      <c r="K37" s="85">
+        <f t="shared" si="10"/>
+        <v>12921.340851944424</v>
+      </c>
+      <c r="L37" s="74"/>
+      <c r="M37" s="75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15">
+      <c r="A38" s="1"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M38" s="76">
+        <f>NPV(M37,B56:K56)</f>
+        <v>14247.112730894709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15">
+      <c r="A39" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M39" s="24">
+        <f>NPV(M37,B41:K41)/NPV(M37,B42:K42)</f>
+        <v>1.219590524583267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="M40" s="37">
+        <f>IRR(B56:K56)</f>
+        <v>0.30915762158932103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:K41" si="11">C22/(1+$M$3)^C21</f>
+        <v>24000</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42">
+        <f>B43+B44+B50+B51</f>
+        <v>10000</v>
+      </c>
+      <c r="C42" s="2">
+        <f>C43+C44+C50+C51</f>
+        <v>20282.956322706268</v>
+      </c>
+      <c r="D42" s="2">
+        <f>D43+D44+D50+D51</f>
+        <v>20116.623845790462</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="12">E43+E44+E50+E51</f>
+        <v>19953.552789990645</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42" si="13">F43+F44+F50+F51</f>
+        <v>19793.679205873181</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42" si="14">G43+G44+G50+G51</f>
+        <v>19636.940397914885</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42" si="15">H43+H44+H50+H51</f>
+        <v>19483.274899916556</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="16">I43+I44+I50+I51</f>
+        <v>11800</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42" si="17">J43+J44+J50+J51</f>
+        <v>11800</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42" si="18">K43+K44+K50+K51</f>
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15">
+      <c r="A43" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:K43" si="19">C24/(1+$M$3)^C40</f>
+        <v>8000.0000000000009</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="19"/>
+        <v>7999.9999999999991</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="19"/>
+        <v>8000.0000000000009</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="19"/>
+        <v>8000</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="19"/>
+        <v>8000.0000000000009</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="19"/>
+        <v>8000</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="19"/>
+        <v>8000</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="19"/>
+        <v>8000</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="19"/>
+        <v>8000.0000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15">
+      <c r="A44" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" ref="C44:K44" si="20">C25/(1+$M$3)^C40</f>
+        <v>3800</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="20"/>
+        <v>3800</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="20"/>
+        <v>3799.9999999999995</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="20"/>
+        <v>3800</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="20"/>
+        <v>3800</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="20"/>
+        <v>3800</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="20"/>
+        <v>3800</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="20"/>
+        <v>3800</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="20"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15">
+      <c r="A45" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="2">
+        <f>B27/(1+$M$3)^B40</f>
+        <v>50000</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47">
+        <f>B28/(1+$M$3)^B40</f>
+        <v>40000</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="82">
+        <f t="shared" ref="C48:K48" si="21">C29/(1+$M$3)^C40</f>
+        <v>5345.701420745484</v>
+      </c>
+      <c r="D48" s="82">
+        <f t="shared" si="21"/>
+        <v>5660.1544454952182</v>
+      </c>
+      <c r="E48" s="82">
+        <f t="shared" si="21"/>
+        <v>5993.1047069949364</v>
+      </c>
+      <c r="F48" s="82">
+        <f t="shared" si="21"/>
+        <v>6345.6402779946384</v>
+      </c>
+      <c r="G48" s="82">
+        <f t="shared" si="21"/>
+        <v>6718.9132355237343</v>
+      </c>
+      <c r="H48" s="82">
+        <f t="shared" si="21"/>
+        <v>7114.1434258486624</v>
+      </c>
+      <c r="I48" s="82">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="82">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="82">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="16">
+        <f t="shared" ref="C49:K49" si="22">C30/(1+$M$3)^C40</f>
+        <v>3137.2549019607845</v>
+      </c>
+      <c r="D49" s="16">
+        <f t="shared" si="22"/>
+        <v>2656.4694002952419</v>
+      </c>
+      <c r="E49" s="16">
+        <f t="shared" si="22"/>
+        <v>2160.4480829957092</v>
+      </c>
+      <c r="F49" s="16">
+        <f t="shared" si="22"/>
+        <v>1648.0389278785437</v>
+      </c>
+      <c r="G49" s="16">
+        <f t="shared" si="22"/>
+        <v>1118.0271623911494</v>
+      </c>
+      <c r="H49" s="16">
+        <f t="shared" si="22"/>
+        <v>569.1314740678929</v>
+      </c>
+      <c r="I49" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50">
+        <f>SUM(B48:B49)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="82">
+        <f>SUM(C48:C49)</f>
+        <v>8482.9563227062681</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="23">SUM(D48:D49)</f>
+        <v>8316.6238457904601</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="24">SUM(E48:E49)</f>
+        <v>8153.5527899906456</v>
+      </c>
+      <c r="F50" s="82">
+        <f>SUM(F48:F49)</f>
+        <v>7993.6792058731826</v>
+      </c>
+      <c r="G50" s="82">
+        <f>SUM(G48:G49)</f>
+        <v>7836.9403979148838</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50" si="25">SUM(H48:H49)</f>
+        <v>7683.2748999165551</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ref="I50" si="26">SUM(I48:I49)</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50" si="27">SUM(J48:J49)</f>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50" si="28">SUM(K48:K49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51">
+        <f>B32/(1+$M$3)^B40</f>
+        <v>10000</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:K52" si="29">C33/(1+$M$3)^C40</f>
+        <v>1600</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="29"/>
+        <v>1600</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="29"/>
+        <v>1600</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="29"/>
+        <v>1600</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="29"/>
+        <v>1600</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="29"/>
+        <v>1600</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="29"/>
+        <v>1600</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="29"/>
+        <v>1600</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="29"/>
+        <v>1600</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+    </row>
+    <row r="53" spans="1:17" ht="15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:17" ht="15">
+      <c r="A54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54:K54" si="30">B41-B42</f>
+        <v>-10000</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="30"/>
+        <v>3717.0436772937319</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="30"/>
+        <v>3883.3761542095381</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="30"/>
+        <v>4046.4472100093553</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="30"/>
+        <v>4206.3207941268192</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="30"/>
+        <v>4363.0596020851153</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="30"/>
+        <v>4516.725100083444</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="30"/>
+        <v>12200</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="30"/>
+        <v>12200</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="30"/>
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:17" ht="15">
+      <c r="A56" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="85">
+        <f t="shared" ref="B56:K56" si="31">B54-B52</f>
+        <v>-10000</v>
+      </c>
+      <c r="C56" s="85">
+        <f t="shared" si="31"/>
+        <v>2117.0436772937319</v>
+      </c>
+      <c r="D56" s="89">
+        <f t="shared" si="31"/>
+        <v>2283.3761542095381</v>
+      </c>
+      <c r="E56" s="85">
+        <f t="shared" si="31"/>
+        <v>2446.4472100093553</v>
+      </c>
+      <c r="F56" s="85">
+        <f t="shared" si="31"/>
+        <v>2606.3207941268192</v>
+      </c>
+      <c r="G56" s="85">
+        <f t="shared" si="31"/>
+        <v>2763.0596020851153</v>
+      </c>
+      <c r="H56" s="85">
+        <f t="shared" si="31"/>
+        <v>2916.725100083444</v>
+      </c>
+      <c r="I56" s="85">
+        <f t="shared" si="31"/>
+        <v>10600</v>
+      </c>
+      <c r="J56" s="85">
+        <f t="shared" si="31"/>
+        <v>10600</v>
+      </c>
+      <c r="K56" s="85">
+        <f t="shared" si="31"/>
+        <v>10600</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="I57"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="M62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11281,37 +11335,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BCAAF9-CCF7-47AD-A405-61DFB4659ECB}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="56" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="127"/>
-    <col min="2" max="2" width="11.453125" style="127" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" style="127" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="127" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" style="127" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="127" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="127" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" style="127" customWidth="1"/>
-    <col min="9" max="10" width="9" style="127"/>
-    <col min="11" max="11" width="13.54296875" style="127" customWidth="1"/>
-    <col min="12" max="12" width="9" style="127"/>
-    <col min="13" max="13" width="13.08984375" style="127" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="127" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="127" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="127" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="127" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="127" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="127" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="127" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="127" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="127" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="127" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="127" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="127" customWidth="1"/>
     <col min="14" max="14" width="9" style="127"/>
-    <col min="15" max="15" width="10.90625" style="127" customWidth="1"/>
+    <col min="15" max="15" width="22.125" style="127" customWidth="1"/>
     <col min="16" max="16384" width="9" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="A1" s="140" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="56.1" customHeight="1">
       <c r="A2" s="128"/>
       <c r="B2" s="141" t="s">
         <v>246</v>
@@ -11334,16 +11389,19 @@
       <c r="H2" s="142" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="N2" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="144"/>
-      <c r="L2" s="126" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="145"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q2" s="145"/>
+    </row>
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="129" t="s">
         <v>253</v>
       </c>
@@ -11373,18 +11431,21 @@
         <f>C3*80%</f>
         <v>36000000</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="175">
+        <v>0.8</v>
+      </c>
+      <c r="N3" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="133">
+      <c r="O3" s="133">
         <v>6</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="P3" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="133"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q3" s="133"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="129" t="s">
         <v>253</v>
       </c>
@@ -11414,20 +11475,20 @@
         <f>C4*80%</f>
         <v>24000000</v>
       </c>
-      <c r="J4" s="146" t="s">
+      <c r="N4" s="146" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="148">
+      <c r="O4" s="148">
         <v>0.1</v>
       </c>
-      <c r="L4" s="149" t="s">
+      <c r="P4" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="133">
+      <c r="Q4" s="133">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
       <c r="A5" s="126" t="s">
         <v>117</v>
       </c>
@@ -11435,20 +11496,20 @@
         <v>1</v>
       </c>
       <c r="H5" s="133"/>
-      <c r="J5" s="150" t="s">
+      <c r="N5" s="150" t="s">
         <v>235</v>
       </c>
-      <c r="K5" s="151">
+      <c r="O5" s="151">
         <v>0.15</v>
       </c>
-      <c r="L5" s="152" t="s">
+      <c r="P5" s="152" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="137">
+      <c r="Q5" s="137">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="A6" s="134" t="s">
         <v>117</v>
       </c>
@@ -11461,26 +11522,26 @@
       <c r="F6" s="136"/>
       <c r="G6" s="136"/>
       <c r="H6" s="137"/>
-      <c r="M6" s="162"/>
-    </row>
-    <row r="7" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N7" s="169" t="s">
+      <c r="M6" s="161"/>
+    </row>
+    <row r="7" spans="1:18" ht="3" customHeight="1">
+      <c r="N7" s="168" t="s">
         <v>271</v>
       </c>
-      <c r="O7" s="169"/>
-      <c r="P7" s="170" t="s">
+      <c r="O7" s="168"/>
+      <c r="P7" s="169" t="s">
         <v>272</v>
       </c>
-      <c r="Q7" s="170"/>
-    </row>
-    <row r="8" spans="1:18" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q7" s="169"/>
+    </row>
+    <row r="8" spans="1:18" ht="0.95" customHeight="1" thickBot="1">
       <c r="A8" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-    </row>
-    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+    </row>
+    <row r="9" spans="1:18" ht="30">
       <c r="A9" s="128"/>
       <c r="B9" s="141" t="s">
         <v>255</v>
@@ -11513,17 +11574,17 @@
         <v>263</v>
       </c>
       <c r="M9" s="128"/>
-      <c r="N9" s="166" t="s">
+      <c r="N9" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="O9" s="166"/>
-      <c r="P9" s="167" t="s">
+      <c r="O9" s="165"/>
+      <c r="P9" s="166" t="s">
         <v>264</v>
       </c>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="162"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q9" s="167"/>
+      <c r="R9" s="161"/>
+    </row>
+    <row r="10" spans="1:18" ht="15">
       <c r="A10" s="129" t="s">
         <v>253</v>
       </c>
@@ -11548,7 +11609,7 @@
         <v>2000</v>
       </c>
       <c r="H10" s="131">
-        <f>G10*K3</f>
+        <f>G10*O3</f>
         <v>12000</v>
       </c>
       <c r="I10" s="130">
@@ -11560,24 +11621,24 @@
       <c r="K10" s="139">
         <v>75</v>
       </c>
-      <c r="M10" s="165" t="s">
+      <c r="M10" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="N10" s="163" t="s">
+      <c r="N10" s="162" t="s">
         <v>241</v>
       </c>
-      <c r="O10" s="163" t="s">
+      <c r="O10" s="162" t="s">
         <v>242</v>
       </c>
-      <c r="P10" s="163" t="s">
+      <c r="P10" s="162" t="s">
         <v>241</v>
       </c>
       <c r="Q10" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="R10" s="162"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R10" s="161"/>
+    </row>
+    <row r="11" spans="1:18" ht="29.25" thickBot="1">
       <c r="A11" s="129" t="s">
         <v>253</v>
       </c>
@@ -11601,7 +11662,7 @@
         <v>700</v>
       </c>
       <c r="H11" s="131">
-        <f>G11*K3</f>
+        <f>G11*O3</f>
         <v>4200</v>
       </c>
       <c r="I11" s="130">
@@ -11616,25 +11677,25 @@
       <c r="M11" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="N11" s="164">
+      <c r="N11" s="163">
         <f>H10</f>
         <v>12000</v>
       </c>
-      <c r="O11" s="164">
+      <c r="O11" s="163">
         <f>G10</f>
         <v>2000</v>
       </c>
-      <c r="P11" s="171">
+      <c r="P11" s="170">
         <f>H11</f>
         <v>4200</v>
       </c>
-      <c r="Q11" s="172">
+      <c r="Q11" s="171">
         <f>G11</f>
         <v>700</v>
       </c>
-      <c r="R11" s="162"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R11" s="161"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1">
       <c r="A12" s="126" t="s">
         <v>117</v>
       </c>
@@ -11642,13 +11703,13 @@
       <c r="M12" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="162"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="161"/>
       <c r="Q12" s="133"/>
-      <c r="R12" s="162"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R12" s="161"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1">
       <c r="A13" s="134" t="s">
         <v>117</v>
       </c>
@@ -11665,63 +11726,63 @@
       <c r="M13" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="N13" s="161">
-        <f>O13*K3</f>
+      <c r="N13" s="160">
+        <f>O13*O3</f>
         <v>300</v>
       </c>
-      <c r="O13" s="161">
+      <c r="O13" s="160">
         <f>I10</f>
         <v>50</v>
       </c>
-      <c r="P13" s="162">
-        <f>Q13*K3</f>
+      <c r="P13" s="161">
+        <f>Q13*O3</f>
         <v>300</v>
       </c>
       <c r="Q13" s="133">
         <f>I11</f>
         <v>50</v>
       </c>
-      <c r="R13" s="162"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R13" s="161"/>
+    </row>
+    <row r="14" spans="1:18" ht="15">
       <c r="M14" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="N14" s="164">
+      <c r="N14" s="163">
         <f>N11-N13</f>
         <v>11700</v>
       </c>
-      <c r="O14" s="164">
+      <c r="O14" s="163">
         <f>O11-O13</f>
         <v>1950</v>
       </c>
-      <c r="P14" s="171">
+      <c r="P14" s="170">
         <f>P11-P13</f>
         <v>3900</v>
       </c>
-      <c r="Q14" s="172">
+      <c r="Q14" s="171">
         <f>Q11-Q13</f>
         <v>650</v>
       </c>
-      <c r="R14" s="162"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R14" s="161"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="A15" s="125" t="s">
         <v>265</v>
       </c>
       <c r="M15" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161">
-        <f>O14*K3</f>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160">
+        <f>O14*O3</f>
         <v>11700</v>
       </c>
-      <c r="P15" s="162"/>
+      <c r="P15" s="161"/>
       <c r="Q15" s="133"/>
-      <c r="R15" s="162"/>
-    </row>
-    <row r="16" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="R15" s="161"/>
+    </row>
+    <row r="16" spans="1:18" ht="30">
       <c r="A16" s="128"/>
       <c r="B16" s="153" t="s">
         <v>246</v>
@@ -11739,57 +11800,62 @@
         <v>269</v>
       </c>
       <c r="G16" s="154" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="M16" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="N16" s="161">
+      <c r="N16" s="160">
         <f>K10</f>
         <v>75</v>
       </c>
-      <c r="O16" s="161"/>
-      <c r="P16" s="162">
+      <c r="O16" s="160"/>
+      <c r="P16" s="161">
         <f>K11</f>
         <v>40</v>
       </c>
       <c r="Q16" s="133"/>
-      <c r="R16" s="162"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R16" s="161"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1">
       <c r="A17" s="129" t="s">
         <v>253</v>
       </c>
-      <c r="B17" s="159">
+      <c r="B17" s="158">
         <v>3</v>
       </c>
-      <c r="C17" s="159">
+      <c r="C17" s="158">
+        <f>D17*6</f>
         <v>450</v>
       </c>
-      <c r="D17" s="159">
+      <c r="D17" s="158">
         <v>75</v>
       </c>
-      <c r="E17" s="160">
+      <c r="E17" s="159">
+        <f>C10*C17</f>
         <v>1800</v>
       </c>
-      <c r="F17" s="160">
+      <c r="F17" s="159">
+        <f>C11*C17</f>
         <v>3150</v>
       </c>
-      <c r="G17" s="158"/>
+      <c r="G17" s="178">
+        <v>25000</v>
+      </c>
       <c r="M17" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="N17" s="161">
-        <v>0</v>
-      </c>
-      <c r="O17" s="161"/>
-      <c r="P17" s="162">
+      <c r="N17" s="160">
+        <v>0</v>
+      </c>
+      <c r="O17" s="160"/>
+      <c r="P17" s="161">
         <v>0</v>
       </c>
       <c r="Q17" s="133"/>
-      <c r="R17" s="162"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R17" s="161"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1">
       <c r="A18" s="134" t="s">
         <v>117</v>
       </c>
@@ -11802,35 +11868,35 @@
       <c r="M18" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="N18" s="161">
+      <c r="N18" s="160">
         <f>J10</f>
         <v>150</v>
       </c>
-      <c r="O18" s="161"/>
-      <c r="P18" s="162">
+      <c r="O18" s="160"/>
+      <c r="P18" s="161">
         <f>J11</f>
         <v>80</v>
       </c>
       <c r="Q18" s="133"/>
-      <c r="R18" s="162"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R18" s="161"/>
+    </row>
+    <row r="19" spans="1:18" ht="15">
       <c r="M19" s="122" t="s">
         <v>243</v>
       </c>
-      <c r="N19" s="164">
+      <c r="N19" s="163">
         <f>N14-N16-N17-N18</f>
         <v>11475</v>
       </c>
-      <c r="O19" s="161"/>
-      <c r="P19" s="171">
+      <c r="O19" s="160"/>
+      <c r="P19" s="170">
         <f>P14-P16-P18</f>
         <v>3780</v>
       </c>
       <c r="Q19" s="133"/>
-      <c r="R19" s="162"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R19" s="161"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1">
       <c r="M20" s="123" t="s">
         <v>244</v>
       </c>
@@ -11839,36 +11905,773 @@
         <v>20655000</v>
       </c>
       <c r="O20" s="124"/>
-      <c r="P20" s="173">
+      <c r="P20" s="172">
         <f>P19*F17</f>
         <v>11907000</v>
       </c>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="162"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q20" s="173"/>
+      <c r="R20" s="161"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="M21" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="Q21" s="127">
+      <c r="P21" s="127">
         <f>N20+P20</f>
         <v>32562000</v>
       </c>
-      <c r="R21" s="162"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
+      <c r="R21" s="161"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+    </row>
+    <row r="25" spans="1:18" customFormat="1" ht="15">
+      <c r="A25" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="90"/>
+    </row>
+    <row r="26" spans="1:18" customFormat="1" ht="15" thickBot="1">
+      <c r="D26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" customFormat="1" ht="15">
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" t="s">
+        <v>156</v>
+      </c>
+      <c r="M27" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27" s="74"/>
+      <c r="O27" s="75">
+        <f>O5</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" customFormat="1" ht="15">
+      <c r="A28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" s="76">
+        <f>NPV(O27,B44:M44)</f>
+        <v>59329864348.714561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" customFormat="1" ht="15">
+      <c r="A29" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="E29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="F29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="G29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="H29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="I29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="J29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="K29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="L29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="M29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O29" s="24" t="e">
+        <f>NPV(O27,#REF!)/NPV(O27,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" customFormat="1" ht="15">
+      <c r="A30" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>(($N$11*$E$17)+($P$11*$F$17))*$C$17</f>
+        <v>15673500000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:M30" si="0">(($N$11*$E$17)+($P$11*$F$17))*$C$17</f>
+        <v>15673500000</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>15673500000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>15673500000</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>15673500000</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>15673500000</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>15673500000</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>15673500000</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>15673500000</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>15673500000</v>
+      </c>
+      <c r="N30" s="23"/>
+      <c r="O30" s="24"/>
+    </row>
+    <row r="31" spans="1:18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A31" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="2">
+        <f>B32+B33+B34+B35+B37</f>
+        <v>45000000</v>
+      </c>
+      <c r="C31" s="2">
+        <f>C32+C33+C34+C35+C37</f>
+        <v>30000000</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:M31" si="1">D32+D33+D34+D35+D37</f>
+        <v>23148000</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>23148000</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>23148000</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>23148000</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>23148000</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>23148000</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>23148000</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="1"/>
+        <v>23148000</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="1"/>
+        <v>23148000</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>23148000</v>
+      </c>
+      <c r="N31" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" s="37" t="e">
+        <f>IRR(D43:M43)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" customFormat="1" ht="15">
+      <c r="A32" s="174" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>$G$17*$C$17</f>
+        <v>11250000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:M32" si="2">$G$17*$C$17</f>
+        <v>11250000</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>11250000</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>11250000</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>11250000</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>11250000</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>11250000</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>11250000</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>11250000</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>11250000</v>
+      </c>
+      <c r="N32" s="176"/>
+      <c r="O32" s="177"/>
+    </row>
+    <row r="33" spans="1:22" customFormat="1" ht="15">
+      <c r="A33" s="174" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>$C$17*(($D$10*$C$10)+($C$11*$D$11))</f>
+        <v>9630000</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:M33" si="3">$C$17*(($D$10*$C$10)+($C$11*$D$11))</f>
+        <v>9630000</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>9630000</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>9630000</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>9630000</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>9630000</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>9630000</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>9630000</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>9630000</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>9630000</v>
+      </c>
+      <c r="N33" s="176"/>
+      <c r="O33" s="177"/>
+    </row>
+    <row r="34" spans="1:22" customFormat="1" ht="15">
+      <c r="A34" s="174" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>(($J$10+$K$10)*$E$17)+(($J$11+$K$11)*$F$17)</f>
+        <v>783000</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:M34" si="4">(($J$10+$K$10)*$E$17)+(($J$11+$K$11)*$F$17)</f>
+        <v>783000</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>783000</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>783000</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>783000</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>783000</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>783000</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>783000</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>783000</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>783000</v>
+      </c>
+      <c r="N34" s="176"/>
+      <c r="O34" s="177"/>
+    </row>
+    <row r="35" spans="1:22" customFormat="1" ht="15">
+      <c r="A35" s="174" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>($I$10*$O$3*$E$17)+($O$3*$I$11*$F$17)</f>
+        <v>1485000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:M35" si="5">($I$10*$O$3*$E$17)+($O$3*$I$11*$F$17)</f>
+        <v>1485000</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>1485000</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>1485000</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>1485000</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>1485000</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>1485000</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>1485000</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>1485000</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>1485000</v>
+      </c>
+      <c r="N35" s="176"/>
+      <c r="O35" s="177"/>
+    </row>
+    <row r="36" spans="1:22" customFormat="1" ht="15">
+      <c r="A36" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="U36" s="52"/>
+      <c r="V36" s="53"/>
+    </row>
+    <row r="37" spans="1:22" customFormat="1">
+      <c r="A37" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="2">
+        <f>C3</f>
+        <v>45000000</v>
+      </c>
+      <c r="C37" s="2">
+        <f>C4</f>
+        <v>30000000</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+    </row>
+    <row r="38" spans="1:22" customFormat="1">
+      <c r="A38" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38">
+        <f>B37*$J$3</f>
+        <v>36000000</v>
+      </c>
+      <c r="C38">
+        <f>C37*$J$3</f>
+        <v>24000000</v>
+      </c>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+    </row>
+    <row r="39" spans="1:22" customFormat="1">
+      <c r="A39" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="180">
+        <v>0</v>
+      </c>
+      <c r="C39" s="180">
+        <v>0</v>
+      </c>
+      <c r="D39" s="181">
+        <f>PPMT($O$5, B28, $M$28-2,-$C$38)</f>
+        <v>1182049.5004220356</v>
+      </c>
+      <c r="E39" s="181">
+        <f>PPMT($O$5, C28, $M$28-2,-$C$38)</f>
+        <v>1359356.9254853409</v>
+      </c>
+      <c r="F39" s="181">
+        <f>PPMT($O$5, D28, $M$28-2,-$C$38)</f>
+        <v>1563260.4643081417</v>
+      </c>
+      <c r="G39" s="181">
+        <f>PPMT($O$5, E28, $M$28-2,-$C$38)</f>
+        <v>1797749.5339543631</v>
+      </c>
+      <c r="H39" s="181">
+        <f>PPMT($O$5, F28, $M$28-2,-$C$38)</f>
+        <v>2067411.9640475176</v>
+      </c>
+      <c r="I39" s="181">
+        <f>PPMT($O$5, G28, $M$28-2,-$C$38)</f>
+        <v>2377523.7586546452</v>
+      </c>
+      <c r="J39" s="181">
+        <f>PPMT($O$5, H28, $M$28-2,-$C$38)</f>
+        <v>2734152.3224528418</v>
+      </c>
+      <c r="K39" s="181">
+        <f>PPMT($O$5, I28, $M$28-2,-$C$38)</f>
+        <v>3144275.170820768</v>
+      </c>
+      <c r="L39" s="181">
+        <f>PPMT($O$5, J28, $M$28-2,-$C$38)</f>
+        <v>3615916.4464438832</v>
+      </c>
+      <c r="M39" s="181">
+        <f>PPMT($O$5, K28, $M$28-2,-$C$38)</f>
+        <v>4158303.9134104652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" customFormat="1">
+      <c r="A40" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="180">
+        <v>0</v>
+      </c>
+      <c r="C40" s="180">
+        <v>0</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+    </row>
+    <row r="41" spans="1:22" customFormat="1">
+      <c r="A41" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+    </row>
+    <row r="42" spans="1:22" customFormat="1">
+      <c r="A42" s="182" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+    </row>
+    <row r="43" spans="1:22" customFormat="1" ht="15" thickBot="1">
+      <c r="A43" s="53"/>
+    </row>
+    <row r="44" spans="1:22" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A44" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="185">
+        <f>B30-B31</f>
+        <v>-45000000</v>
+      </c>
+      <c r="C44" s="184">
+        <f>C30-C31</f>
+        <v>-30000000</v>
+      </c>
+      <c r="D44" s="184">
+        <f>D30-D31</f>
+        <v>15650352000</v>
+      </c>
+      <c r="E44" s="184">
+        <f t="shared" ref="D44:M44" si="6">E30-E31</f>
+        <v>15650352000</v>
+      </c>
+      <c r="F44" s="185">
+        <f>F30-F31</f>
+        <v>15650352000</v>
+      </c>
+      <c r="G44" s="184">
+        <f t="shared" si="6"/>
+        <v>15650352000</v>
+      </c>
+      <c r="H44" s="184">
+        <f t="shared" si="6"/>
+        <v>15650352000</v>
+      </c>
+      <c r="I44" s="184">
+        <f t="shared" si="6"/>
+        <v>15650352000</v>
+      </c>
+      <c r="J44" s="184">
+        <f t="shared" si="6"/>
+        <v>15650352000</v>
+      </c>
+      <c r="K44" s="184">
+        <f t="shared" si="6"/>
+        <v>15650352000</v>
+      </c>
+      <c r="L44" s="184">
+        <f t="shared" si="6"/>
+        <v>15650352000</v>
+      </c>
+      <c r="M44" s="184">
+        <f t="shared" si="6"/>
+        <v>15650352000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" customFormat="1"/>
+    <row r="46" spans="1:22" customFormat="1">
+      <c r="A46" s="127"/>
+    </row>
+    <row r="47" spans="1:22" customFormat="1">
+      <c r="A47" s="127"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="B48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11876,11 +12679,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="81c8d946-e74e-4658-82bc-01095f10b832" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12123,27 +12927,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="81c8d946-e74e-4658-82bc-01095f10b832" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B8D604-7AA4-4EF4-B03B-AF1A63110666}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27938BAF-8B73-4EF6-B007-DD17E20F45D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="81c8d946-e74e-4658-82bc-01095f10b832"/>
-    <ds:schemaRef ds:uri="af7da3fd-bd7d-4b07-a26d-5c4edd2bac1d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12168,9 +12962,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27938BAF-8B73-4EF6-B007-DD17E20F45D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B8D604-7AA4-4EF4-B03B-AF1A63110666}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="81c8d946-e74e-4658-82bc-01095f10b832"/>
+    <ds:schemaRef ds:uri="af7da3fd-bd7d-4b07-a26d-5c4edd2bac1d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>